--- a/data_year/zb/批发和零售业/限额以上批发业企业主要财务指标/按国民经济行业分限额以上批发业企业营业成本.xlsx
+++ b/data_year/zb/批发和零售业/限额以上批发业企业主要财务指标/按国民经济行业分限额以上批发业企业营业成本.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U22"/>
+  <dimension ref="A1:U13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -538,1340 +538,805 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>662.8556</v>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
+        <v>4845</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3406.1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2271.9</v>
+      </c>
       <c r="E2" t="n">
-        <v>896.593</v>
+        <v>6530.5</v>
       </c>
       <c r="F2" t="n">
-        <v>133.9082</v>
-      </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+        <v>5099.8</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2176.1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>4909.5</v>
+      </c>
+      <c r="I2" t="n">
+        <v>3463.2</v>
+      </c>
       <c r="J2" t="n">
-        <v>1147.7714</v>
+        <v>28728</v>
       </c>
       <c r="K2" t="n">
-        <v>1073.3177</v>
+        <v>9487.299999999999</v>
       </c>
       <c r="L2" t="n">
-        <v>3371.2465</v>
+        <v>7113</v>
       </c>
       <c r="M2" t="n">
-        <v>420.5913</v>
+        <v>14186.9</v>
       </c>
       <c r="N2" t="n">
-        <v>4956.791</v>
-      </c>
-      <c r="O2" t="inlineStr"/>
+        <v>34668.2</v>
+      </c>
+      <c r="O2" t="n">
+        <v>111005.2</v>
+      </c>
       <c r="P2" t="n">
-        <v>794.6045</v>
-      </c>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
+        <v>1838.4</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>10065</v>
+      </c>
+      <c r="R2" t="n">
+        <v>2668.4</v>
+      </c>
+      <c r="S2" t="n">
+        <v>3020.9</v>
+      </c>
+      <c r="T2" t="n">
+        <v>42638.1</v>
+      </c>
       <c r="U2" t="n">
-        <v>5207.285</v>
+        <v>13705.6</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
+          <t>2011年</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>6175.2812</v>
+      </c>
+      <c r="C3" t="n">
+        <v>4376.8385</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3257.4716</v>
+      </c>
       <c r="E3" t="n">
-        <v>1078.2494</v>
+        <v>8460.8971</v>
       </c>
       <c r="F3" t="n">
-        <v>146.7328</v>
-      </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>7582.8912</v>
+      </c>
+      <c r="G3" t="n">
+        <v>2899.3816</v>
+      </c>
+      <c r="H3" t="n">
+        <v>5959.2357</v>
+      </c>
+      <c r="I3" t="n">
+        <v>4600.1364</v>
+      </c>
+      <c r="J3" t="n">
+        <v>36478.5204</v>
+      </c>
       <c r="K3" t="n">
-        <v>1186.9092</v>
+        <v>11695.4974</v>
       </c>
       <c r="L3" t="n">
-        <v>3060.2558</v>
+        <v>8296.2567</v>
       </c>
       <c r="M3" t="n">
-        <v>501.5281</v>
+        <v>19374.0245</v>
       </c>
       <c r="N3" t="n">
-        <v>5510.0178</v>
-      </c>
-      <c r="O3" t="inlineStr"/>
+        <v>46740.9301</v>
+      </c>
+      <c r="O3" t="n">
+        <v>149198.0336</v>
+      </c>
       <c r="P3" t="n">
-        <v>831.2687</v>
-      </c>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
+        <v>2432.0282</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>12827.2653</v>
+      </c>
+      <c r="R3" t="n">
+        <v>4003.7621</v>
+      </c>
+      <c r="S3" t="n">
+        <v>3562.1968</v>
+      </c>
+      <c r="T3" t="n">
+        <v>56492.6304</v>
+      </c>
       <c r="U3" t="n">
-        <v>4888.3757</v>
+        <v>16839.605</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
+          <t>2012年</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>6203.75575</v>
+      </c>
+      <c r="C4" t="n">
+        <v>5318.85982</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4490.06135</v>
+      </c>
       <c r="E4" t="n">
-        <v>1285.187</v>
+        <v>9677.81084</v>
       </c>
       <c r="F4" t="n">
-        <v>203.3297</v>
-      </c>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+        <v>8576.35094</v>
+      </c>
+      <c r="G4" t="n">
+        <v>4175.14692</v>
+      </c>
+      <c r="H4" t="n">
+        <v>6319.66808</v>
+      </c>
+      <c r="I4" t="n">
+        <v>5213.00049</v>
+      </c>
+      <c r="J4" t="n">
+        <v>34099.43925</v>
+      </c>
       <c r="K4" t="n">
-        <v>1592.359</v>
+        <v>12112.84745</v>
       </c>
       <c r="L4" t="n">
-        <v>3077.8662</v>
+        <v>9703.69029</v>
       </c>
       <c r="M4" t="n">
-        <v>532.9645</v>
+        <v>23405.26266</v>
       </c>
       <c r="N4" t="n">
-        <v>5804.3912</v>
-      </c>
-      <c r="O4" t="inlineStr"/>
+        <v>53578.39273</v>
+      </c>
+      <c r="O4" t="n">
+        <v>170192.01069</v>
+      </c>
       <c r="P4" t="n">
-        <v>921.6098</v>
-      </c>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
+        <v>3086.98423</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>20601.46145</v>
+      </c>
+      <c r="R4" t="n">
+        <v>3457.29861</v>
+      </c>
+      <c r="S4" t="n">
+        <v>3551.78179</v>
+      </c>
+      <c r="T4" t="n">
+        <v>60268.55985</v>
+      </c>
       <c r="U4" t="n">
-        <v>4961.6554</v>
+        <v>19798.15351</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>948.92147</v>
+        <v>7463.07265</v>
       </c>
       <c r="C5" t="n">
-        <v>1234.83962</v>
+        <v>7038.80431</v>
       </c>
       <c r="D5" t="n">
-        <v>643.70101</v>
+        <v>4856.28102</v>
       </c>
       <c r="E5" t="n">
-        <v>1604.13233</v>
+        <v>12106.22282</v>
       </c>
       <c r="F5" t="n">
-        <v>435.0259</v>
+        <v>10036.26857</v>
       </c>
       <c r="G5" t="n">
-        <v>522.43997</v>
+        <v>5396.45304</v>
       </c>
       <c r="H5" t="n">
-        <v>516.24081</v>
+        <v>7695.1568</v>
       </c>
       <c r="I5" t="n">
-        <v>991.81206</v>
+        <v>6201.18565</v>
       </c>
       <c r="J5" t="n">
-        <v>5001.50888</v>
+        <v>39849.38103</v>
       </c>
       <c r="K5" t="n">
-        <v>1919.65292</v>
+        <v>13908.0508</v>
       </c>
       <c r="L5" t="n">
-        <v>3586.60523</v>
+        <v>10710.44679</v>
       </c>
       <c r="M5" t="n">
-        <v>695.6796900000001</v>
+        <v>28466.97415</v>
       </c>
       <c r="N5" t="n">
-        <v>6215.47609</v>
+        <v>61665.64626</v>
       </c>
       <c r="O5" t="n">
-        <v>13083.99019</v>
+        <v>207316.39543</v>
       </c>
       <c r="P5" t="n">
-        <v>609.16513</v>
+        <v>4175.5324</v>
       </c>
       <c r="Q5" t="n">
-        <v>3058.71228</v>
+        <v>25153.03663</v>
       </c>
       <c r="R5" t="n">
-        <v>253.60606</v>
+        <v>3671.69587</v>
       </c>
       <c r="S5" t="n">
-        <v>623.86557</v>
+        <v>4250.67029</v>
       </c>
       <c r="T5" t="n">
-        <v>3773.73552</v>
+        <v>74794.18938</v>
       </c>
       <c r="U5" t="n">
-        <v>5132.6211</v>
+        <v>25157.6724</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2012.20784</v>
+        <v>7941.45956</v>
       </c>
       <c r="C6" t="n">
-        <v>1632.08502</v>
+        <v>7308.59234</v>
       </c>
       <c r="D6" t="n">
-        <v>887.87953</v>
+        <v>6141.97087</v>
       </c>
       <c r="E6" t="n">
-        <v>2481.51615</v>
+        <v>14255.34231</v>
       </c>
       <c r="F6" t="n">
-        <v>1281.8734</v>
+        <v>10758.51628</v>
       </c>
       <c r="G6" t="n">
-        <v>855.96804</v>
+        <v>5905.26864</v>
       </c>
       <c r="H6" t="n">
-        <v>1403.27518</v>
+        <v>7810.37626</v>
       </c>
       <c r="I6" t="n">
-        <v>1737.50505</v>
+        <v>6765.74922</v>
       </c>
       <c r="J6" t="n">
-        <v>10956.19031</v>
+        <v>45160.55466</v>
       </c>
       <c r="K6" t="n">
-        <v>3310.69435</v>
+        <v>15707.01478</v>
       </c>
       <c r="L6" t="n">
-        <v>4413.74333</v>
+        <v>11543.7033</v>
       </c>
       <c r="M6" t="n">
-        <v>2028.43683</v>
+        <v>27393.72288</v>
       </c>
       <c r="N6" t="n">
-        <v>12644.15252</v>
+        <v>62659.26739</v>
       </c>
       <c r="O6" t="n">
-        <v>30211.70426</v>
+        <v>221563.07253</v>
       </c>
       <c r="P6" t="n">
-        <v>773.2183199999999</v>
+        <v>4643.95291</v>
       </c>
       <c r="Q6" t="n">
-        <v>4617.57335</v>
+        <v>27875.62041</v>
       </c>
       <c r="R6" t="n">
-        <v>1066.44899</v>
+        <v>3933.63453</v>
       </c>
       <c r="S6" t="n">
-        <v>571.78389</v>
+        <v>4607.18951</v>
       </c>
       <c r="T6" t="n">
-        <v>9931.320530000001</v>
+        <v>82726.44740999999</v>
       </c>
       <c r="U6" t="n">
-        <v>6810.6421</v>
+        <v>28497.3297</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2826.16776</v>
+        <v>7137.5905</v>
       </c>
       <c r="C7" t="n">
-        <v>1605.81316</v>
+        <v>7472.0268</v>
       </c>
       <c r="D7" t="n">
-        <v>997.73973</v>
+        <v>5352.4556</v>
       </c>
       <c r="E7" t="n">
-        <v>2683.96218</v>
+        <v>16162.485</v>
       </c>
       <c r="F7" t="n">
-        <v>1282.21017</v>
+        <v>10195.2921</v>
       </c>
       <c r="G7" t="n">
-        <v>841.45926</v>
+        <v>6590.8314</v>
       </c>
       <c r="H7" t="n">
-        <v>1437.00867</v>
+        <v>7755.9828</v>
       </c>
       <c r="I7" t="n">
-        <v>1778.50263</v>
+        <v>6709.2762</v>
       </c>
       <c r="J7" t="n">
-        <v>9379.30214</v>
+        <v>47670.4262</v>
       </c>
       <c r="K7" t="n">
-        <v>2583.37879</v>
+        <v>16741.8415</v>
       </c>
       <c r="L7" t="n">
-        <v>4707.92105</v>
+        <v>11301.1239</v>
       </c>
       <c r="M7" t="n">
-        <v>2344.35687</v>
+        <v>22720.2802</v>
       </c>
       <c r="N7" t="n">
-        <v>13994.89488</v>
+        <v>48226.0781</v>
       </c>
       <c r="O7" t="n">
-        <v>32431.86871</v>
+        <v>185826.611</v>
       </c>
       <c r="P7" t="n">
-        <v>614.94601</v>
+        <v>4773.7573</v>
       </c>
       <c r="Q7" t="n">
-        <v>4709.50378</v>
+        <v>28000.0896</v>
       </c>
       <c r="R7" t="n">
-        <v>936.80531</v>
+        <v>3947.0113</v>
       </c>
       <c r="S7" t="n">
-        <v>640.44822</v>
+        <v>4955.2566</v>
       </c>
       <c r="T7" t="n">
-        <v>10284.62829</v>
+        <v>71991.05039999999</v>
       </c>
       <c r="U7" t="n">
-        <v>6929.3855</v>
+        <v>30162.7647</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2636.8504</v>
+        <v>7125.8057</v>
       </c>
       <c r="C8" t="n">
-        <v>1703.1022</v>
+        <v>7800.6894</v>
       </c>
       <c r="D8" t="n">
-        <v>1125.5665</v>
+        <v>4153.2298</v>
       </c>
       <c r="E8" t="n">
-        <v>2954.1593</v>
+        <v>18261.8459</v>
       </c>
       <c r="F8" t="n">
-        <v>1547.8673</v>
+        <v>10936.1065</v>
       </c>
       <c r="G8" t="n">
-        <v>936.0253</v>
+        <v>7106.1006</v>
       </c>
       <c r="H8" t="n">
-        <v>1729.2277</v>
+        <v>8820.238799999999</v>
       </c>
       <c r="I8" t="n">
-        <v>2239.2004</v>
+        <v>5953.7183</v>
       </c>
       <c r="J8" t="n">
-        <v>10817.0484</v>
+        <v>55274.5518</v>
       </c>
       <c r="K8" t="n">
-        <v>2200.1668</v>
+        <v>20119.0651</v>
       </c>
       <c r="L8" t="n">
-        <v>4731.6744</v>
+        <v>10714.2634</v>
       </c>
       <c r="M8" t="n">
-        <v>2573.4065</v>
+        <v>22084.582</v>
       </c>
       <c r="N8" t="n">
-        <v>16699.8732</v>
+        <v>49007.5729</v>
       </c>
       <c r="O8" t="n">
-        <v>39073.4957</v>
+        <v>196244.7089</v>
       </c>
       <c r="P8" t="n">
-        <v>617.9344</v>
+        <v>5146.5631</v>
       </c>
       <c r="Q8" t="n">
-        <v>5635.2179</v>
+        <v>28413.2394</v>
       </c>
       <c r="R8" t="n">
-        <v>1033.6518</v>
+        <v>4449.8257</v>
       </c>
       <c r="S8" t="n">
-        <v>1351.0602</v>
+        <v>5179.2779</v>
       </c>
       <c r="T8" t="n">
-        <v>13160.1158</v>
+        <v>79361.41310000001</v>
       </c>
       <c r="U8" t="n">
-        <v>7285.8429</v>
+        <v>31879.1889</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3210.26976</v>
+        <v>7150.914</v>
       </c>
       <c r="C9" t="n">
-        <v>1798.6024</v>
+        <v>8203.085999999999</v>
       </c>
       <c r="D9" t="n">
-        <v>1341.66353</v>
+        <v>4133.656</v>
       </c>
       <c r="E9" t="n">
-        <v>3488.18273</v>
+        <v>20842.209</v>
       </c>
       <c r="F9" t="n">
-        <v>2252.13955</v>
+        <v>12130.156</v>
       </c>
       <c r="G9" t="n">
-        <v>1050.49642</v>
+        <v>8107.169</v>
       </c>
       <c r="H9" t="n">
-        <v>2264.13733</v>
+        <v>11075.315</v>
       </c>
       <c r="I9" t="n">
-        <v>2515.02564</v>
+        <v>6231.93</v>
       </c>
       <c r="J9" t="n">
-        <v>13266.17472</v>
+        <v>62520.424</v>
       </c>
       <c r="K9" t="n">
-        <v>3117.36279</v>
+        <v>22285.564</v>
       </c>
       <c r="L9" t="n">
-        <v>4879.10712</v>
+        <v>10931.617</v>
       </c>
       <c r="M9" t="n">
-        <v>3633.21576</v>
+        <v>24617.028</v>
       </c>
       <c r="N9" t="n">
-        <v>20517.07844</v>
+        <v>59624.396</v>
       </c>
       <c r="O9" t="n">
-        <v>49421.71101</v>
+        <v>240465.913</v>
       </c>
       <c r="P9" t="n">
-        <v>706.67383</v>
+        <v>5619.303</v>
       </c>
       <c r="Q9" t="n">
-        <v>6379.53198</v>
+        <v>32369.738</v>
       </c>
       <c r="R9" t="n">
-        <v>1285.7404</v>
+        <v>5404.591</v>
       </c>
       <c r="S9" t="n">
-        <v>1608.51817</v>
+        <v>5091.406</v>
       </c>
       <c r="T9" t="n">
-        <v>16963.99095</v>
+        <v>101592.319</v>
       </c>
       <c r="U9" t="n">
-        <v>7858.22923</v>
+        <v>32184.472</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4730.7175</v>
+        <v>7242.4</v>
       </c>
       <c r="C10" t="n">
-        <v>2534.3575</v>
+        <v>9585.700000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>2207.786</v>
+        <v>4284.6</v>
       </c>
       <c r="E10" t="n">
-        <v>4749.2862</v>
+        <v>22581.9</v>
       </c>
       <c r="F10" t="n">
-        <v>3823.9854</v>
+        <v>14738.2</v>
       </c>
       <c r="G10" t="n">
-        <v>1783.8441</v>
+        <v>9258</v>
       </c>
       <c r="H10" t="n">
-        <v>2840.0178</v>
+        <v>9738.5</v>
       </c>
       <c r="I10" t="n">
-        <v>3094.8139</v>
+        <v>6516.7</v>
       </c>
       <c r="J10" t="n">
-        <v>21366.405</v>
+        <v>70796.8</v>
       </c>
       <c r="K10" t="n">
-        <v>6688.7307</v>
+        <v>27560.6</v>
       </c>
       <c r="L10" t="n">
-        <v>5779.7741</v>
+        <v>11402</v>
       </c>
       <c r="M10" t="n">
-        <v>8709.7531</v>
+        <v>27747.1</v>
       </c>
       <c r="N10" t="n">
-        <v>26725.2244</v>
+        <v>67307.39999999999</v>
       </c>
       <c r="O10" t="n">
-        <v>85065.9301</v>
+        <v>271631</v>
       </c>
       <c r="P10" t="n">
-        <v>1268.8024</v>
+        <v>5997.9</v>
       </c>
       <c r="Q10" t="n">
-        <v>8501.7631</v>
+        <v>36961.7</v>
       </c>
       <c r="R10" t="n">
-        <v>1990.178</v>
+        <v>6515.6</v>
       </c>
       <c r="S10" t="n">
-        <v>3257.7768</v>
+        <v>4258.4</v>
       </c>
       <c r="T10" t="n">
-        <v>34756.8448</v>
+        <v>115218.2</v>
       </c>
       <c r="U10" t="n">
-        <v>10394.7827</v>
+        <v>33954</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3344.8996</v>
+        <v>9810.4743</v>
       </c>
       <c r="C11" t="n">
-        <v>2656.13517</v>
+        <v>12539.473</v>
       </c>
       <c r="D11" t="n">
-        <v>2074.66585</v>
+        <v>4998.468</v>
       </c>
       <c r="E11" t="n">
-        <v>5599.24807</v>
+        <v>27656.1343</v>
       </c>
       <c r="F11" t="n">
-        <v>3835.53119</v>
+        <v>20001.371</v>
       </c>
       <c r="G11" t="n">
-        <v>1593.8987</v>
+        <v>10620.2488</v>
       </c>
       <c r="H11" t="n">
-        <v>3546.59471</v>
+        <v>11296.3315</v>
       </c>
       <c r="I11" t="n">
-        <v>2936.76496</v>
+        <v>7203.1864</v>
       </c>
       <c r="J11" t="n">
-        <v>20902.00183</v>
+        <v>79409.6094</v>
       </c>
       <c r="K11" t="n">
-        <v>6255.64993</v>
+        <v>30134.8454</v>
       </c>
       <c r="L11" t="n">
-        <v>6412.31114</v>
+        <v>12203.4818</v>
       </c>
       <c r="M11" t="n">
-        <v>8801.33453</v>
+        <v>34406.0339</v>
       </c>
       <c r="N11" t="n">
-        <v>25366.32088</v>
+        <v>65547.7951</v>
       </c>
       <c r="O11" t="n">
-        <v>76134.61835999999</v>
+        <v>324167.1451</v>
       </c>
       <c r="P11" t="n">
-        <v>1295.41904</v>
+        <v>7352.3275</v>
       </c>
       <c r="Q11" t="n">
-        <v>7970.65166</v>
+        <v>43173.4876</v>
       </c>
       <c r="R11" t="n">
-        <v>2153.58274</v>
+        <v>6812.5929</v>
       </c>
       <c r="S11" t="n">
-        <v>2574.77039</v>
+        <v>4778.9312</v>
       </c>
       <c r="T11" t="n">
-        <v>28282.92307</v>
+        <v>149907.3882</v>
       </c>
       <c r="U11" t="n">
-        <v>11154.45275</v>
+        <v>40210.9086</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4845</v>
+        <v>12443.9714</v>
       </c>
       <c r="C12" t="n">
-        <v>3406.1</v>
+        <v>16463.7864</v>
       </c>
       <c r="D12" t="n">
-        <v>2271.9</v>
+        <v>5115.003</v>
       </c>
       <c r="E12" t="n">
-        <v>6530.5</v>
+        <v>29242.321</v>
       </c>
       <c r="F12" t="n">
-        <v>5099.8</v>
+        <v>23347.3572</v>
       </c>
       <c r="G12" t="n">
-        <v>2176.1</v>
+        <v>11169.9719</v>
       </c>
       <c r="H12" t="n">
-        <v>4909.5</v>
+        <v>11723.3102</v>
       </c>
       <c r="I12" t="n">
-        <v>3463.2</v>
+        <v>7156.8307</v>
       </c>
       <c r="J12" t="n">
-        <v>28728</v>
+        <v>88740.8544</v>
       </c>
       <c r="K12" t="n">
-        <v>9487.299999999999</v>
+        <v>31343.4151</v>
       </c>
       <c r="L12" t="n">
-        <v>7113</v>
+        <v>12872.0164</v>
       </c>
       <c r="M12" t="n">
-        <v>14186.9</v>
+        <v>38601.726</v>
       </c>
       <c r="N12" t="n">
-        <v>34668.2</v>
+        <v>58546.0517</v>
       </c>
       <c r="O12" t="n">
-        <v>111005.2</v>
+        <v>365694.5204</v>
       </c>
       <c r="P12" t="n">
-        <v>1838.4</v>
+        <v>8559.874599999999</v>
       </c>
       <c r="Q12" t="n">
-        <v>10065</v>
+        <v>45416.6926</v>
       </c>
       <c r="R12" t="n">
-        <v>2668.4</v>
+        <v>9801.8169</v>
       </c>
       <c r="S12" t="n">
-        <v>3020.9</v>
+        <v>4928.0857</v>
       </c>
       <c r="T12" t="n">
-        <v>42638.1</v>
+        <v>182510.9473</v>
       </c>
       <c r="U12" t="n">
-        <v>13705.6</v>
+        <v>46018.3439</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>6175.2812</v>
+        <v>15769.5636</v>
       </c>
       <c r="C13" t="n">
-        <v>4376.8385</v>
+        <v>22190.3546</v>
       </c>
       <c r="D13" t="n">
-        <v>3257.4716</v>
+        <v>6242.3087</v>
       </c>
       <c r="E13" t="n">
-        <v>8460.8971</v>
+        <v>33601.6483</v>
       </c>
       <c r="F13" t="n">
-        <v>7582.8912</v>
+        <v>30064.0625</v>
       </c>
       <c r="G13" t="n">
-        <v>2899.3816</v>
+        <v>14308.8764</v>
       </c>
       <c r="H13" t="n">
-        <v>5959.2357</v>
+        <v>14193.7272</v>
       </c>
       <c r="I13" t="n">
-        <v>4600.1364</v>
+        <v>8546.5923</v>
       </c>
       <c r="J13" t="n">
-        <v>36478.5204</v>
+        <v>103595.744</v>
       </c>
       <c r="K13" t="n">
-        <v>11695.4974</v>
+        <v>34888.8578</v>
       </c>
       <c r="L13" t="n">
-        <v>8296.2567</v>
+        <v>13203.6966</v>
       </c>
       <c r="M13" t="n">
-        <v>19374.0245</v>
+        <v>62545.4349</v>
       </c>
       <c r="N13" t="n">
-        <v>46740.9301</v>
+        <v>77925.9969</v>
       </c>
       <c r="O13" t="n">
-        <v>149198.0336</v>
+        <v>506873.7948</v>
       </c>
       <c r="P13" t="n">
-        <v>2432.0282</v>
+        <v>10599.4174</v>
       </c>
       <c r="Q13" t="n">
-        <v>12827.2653</v>
+        <v>55503.8922</v>
       </c>
       <c r="R13" t="n">
-        <v>4003.7621</v>
+        <v>12999.4191</v>
       </c>
       <c r="S13" t="n">
-        <v>3562.1968</v>
+        <v>5339.4742</v>
       </c>
       <c r="T13" t="n">
-        <v>56492.6304</v>
+        <v>248515.0319</v>
       </c>
       <c r="U13" t="n">
-        <v>16839.605</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>6203.75575</v>
-      </c>
-      <c r="C14" t="n">
-        <v>5318.85982</v>
-      </c>
-      <c r="D14" t="n">
-        <v>4490.06135</v>
-      </c>
-      <c r="E14" t="n">
-        <v>9677.81084</v>
-      </c>
-      <c r="F14" t="n">
-        <v>8576.35094</v>
-      </c>
-      <c r="G14" t="n">
-        <v>4175.14692</v>
-      </c>
-      <c r="H14" t="n">
-        <v>6319.66808</v>
-      </c>
-      <c r="I14" t="n">
-        <v>5213.00049</v>
-      </c>
-      <c r="J14" t="n">
-        <v>34099.43925</v>
-      </c>
-      <c r="K14" t="n">
-        <v>12112.84745</v>
-      </c>
-      <c r="L14" t="n">
-        <v>9703.69029</v>
-      </c>
-      <c r="M14" t="n">
-        <v>23405.26266</v>
-      </c>
-      <c r="N14" t="n">
-        <v>53578.39273</v>
-      </c>
-      <c r="O14" t="n">
-        <v>170192.01069</v>
-      </c>
-      <c r="P14" t="n">
-        <v>3086.98423</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>20601.46145</v>
-      </c>
-      <c r="R14" t="n">
-        <v>3457.29861</v>
-      </c>
-      <c r="S14" t="n">
-        <v>3551.78179</v>
-      </c>
-      <c r="T14" t="n">
-        <v>60268.55985</v>
-      </c>
-      <c r="U14" t="n">
-        <v>19798.15351</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>7463.07265</v>
-      </c>
-      <c r="C15" t="n">
-        <v>7038.80431</v>
-      </c>
-      <c r="D15" t="n">
-        <v>4856.28102</v>
-      </c>
-      <c r="E15" t="n">
-        <v>12106.22282</v>
-      </c>
-      <c r="F15" t="n">
-        <v>10036.26857</v>
-      </c>
-      <c r="G15" t="n">
-        <v>5396.45304</v>
-      </c>
-      <c r="H15" t="n">
-        <v>7695.1568</v>
-      </c>
-      <c r="I15" t="n">
-        <v>6201.18565</v>
-      </c>
-      <c r="J15" t="n">
-        <v>39849.38103</v>
-      </c>
-      <c r="K15" t="n">
-        <v>13908.0508</v>
-      </c>
-      <c r="L15" t="n">
-        <v>10710.44679</v>
-      </c>
-      <c r="M15" t="n">
-        <v>28466.97415</v>
-      </c>
-      <c r="N15" t="n">
-        <v>61665.64626</v>
-      </c>
-      <c r="O15" t="n">
-        <v>207316.39543</v>
-      </c>
-      <c r="P15" t="n">
-        <v>4175.5324</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>25153.03663</v>
-      </c>
-      <c r="R15" t="n">
-        <v>3671.69587</v>
-      </c>
-      <c r="S15" t="n">
-        <v>4250.67029</v>
-      </c>
-      <c r="T15" t="n">
-        <v>74794.18938</v>
-      </c>
-      <c r="U15" t="n">
-        <v>25157.6724</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>7941.45956</v>
-      </c>
-      <c r="C16" t="n">
-        <v>7308.59234</v>
-      </c>
-      <c r="D16" t="n">
-        <v>6141.97087</v>
-      </c>
-      <c r="E16" t="n">
-        <v>14255.34231</v>
-      </c>
-      <c r="F16" t="n">
-        <v>10758.51628</v>
-      </c>
-      <c r="G16" t="n">
-        <v>5905.26864</v>
-      </c>
-      <c r="H16" t="n">
-        <v>7810.37626</v>
-      </c>
-      <c r="I16" t="n">
-        <v>6765.74922</v>
-      </c>
-      <c r="J16" t="n">
-        <v>45160.55466</v>
-      </c>
-      <c r="K16" t="n">
-        <v>15707.01478</v>
-      </c>
-      <c r="L16" t="n">
-        <v>11543.7033</v>
-      </c>
-      <c r="M16" t="n">
-        <v>27393.72288</v>
-      </c>
-      <c r="N16" t="n">
-        <v>62659.26739</v>
-      </c>
-      <c r="O16" t="n">
-        <v>221563.07253</v>
-      </c>
-      <c r="P16" t="n">
-        <v>4643.95291</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>27875.62041</v>
-      </c>
-      <c r="R16" t="n">
-        <v>3933.63453</v>
-      </c>
-      <c r="S16" t="n">
-        <v>4607.18951</v>
-      </c>
-      <c r="T16" t="n">
-        <v>82726.44740999999</v>
-      </c>
-      <c r="U16" t="n">
-        <v>28497.3297</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>7137.5905</v>
-      </c>
-      <c r="C17" t="n">
-        <v>7472.0268</v>
-      </c>
-      <c r="D17" t="n">
-        <v>5352.4556</v>
-      </c>
-      <c r="E17" t="n">
-        <v>16162.485</v>
-      </c>
-      <c r="F17" t="n">
-        <v>10195.2921</v>
-      </c>
-      <c r="G17" t="n">
-        <v>6590.8314</v>
-      </c>
-      <c r="H17" t="n">
-        <v>7755.9828</v>
-      </c>
-      <c r="I17" t="n">
-        <v>6709.2762</v>
-      </c>
-      <c r="J17" t="n">
-        <v>47670.4262</v>
-      </c>
-      <c r="K17" t="n">
-        <v>16741.8415</v>
-      </c>
-      <c r="L17" t="n">
-        <v>11301.1239</v>
-      </c>
-      <c r="M17" t="n">
-        <v>22720.2802</v>
-      </c>
-      <c r="N17" t="n">
-        <v>48226.0781</v>
-      </c>
-      <c r="O17" t="n">
-        <v>185826.611</v>
-      </c>
-      <c r="P17" t="n">
-        <v>4773.7573</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>28000.0896</v>
-      </c>
-      <c r="R17" t="n">
-        <v>3947.0113</v>
-      </c>
-      <c r="S17" t="n">
-        <v>4955.2566</v>
-      </c>
-      <c r="T17" t="n">
-        <v>71991.05039999999</v>
-      </c>
-      <c r="U17" t="n">
-        <v>30162.7647</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>7125.8057</v>
-      </c>
-      <c r="C18" t="n">
-        <v>7800.6894</v>
-      </c>
-      <c r="D18" t="n">
-        <v>4153.2298</v>
-      </c>
-      <c r="E18" t="n">
-        <v>18261.8459</v>
-      </c>
-      <c r="F18" t="n">
-        <v>10936.1065</v>
-      </c>
-      <c r="G18" t="n">
-        <v>7106.1006</v>
-      </c>
-      <c r="H18" t="n">
-        <v>8820.238799999999</v>
-      </c>
-      <c r="I18" t="n">
-        <v>5953.7183</v>
-      </c>
-      <c r="J18" t="n">
-        <v>55274.5518</v>
-      </c>
-      <c r="K18" t="n">
-        <v>20119.0651</v>
-      </c>
-      <c r="L18" t="n">
-        <v>10714.2634</v>
-      </c>
-      <c r="M18" t="n">
-        <v>22084.582</v>
-      </c>
-      <c r="N18" t="n">
-        <v>49007.5729</v>
-      </c>
-      <c r="O18" t="n">
-        <v>196244.7089</v>
-      </c>
-      <c r="P18" t="n">
-        <v>5146.5631</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>28413.2394</v>
-      </c>
-      <c r="R18" t="n">
-        <v>4449.8257</v>
-      </c>
-      <c r="S18" t="n">
-        <v>5179.2779</v>
-      </c>
-      <c r="T18" t="n">
-        <v>79361.41310000001</v>
-      </c>
-      <c r="U18" t="n">
-        <v>31879.1889</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>7150.914</v>
-      </c>
-      <c r="C19" t="n">
-        <v>8203.085999999999</v>
-      </c>
-      <c r="D19" t="n">
-        <v>4133.656</v>
-      </c>
-      <c r="E19" t="n">
-        <v>20842.209</v>
-      </c>
-      <c r="F19" t="n">
-        <v>12130.156</v>
-      </c>
-      <c r="G19" t="n">
-        <v>8107.169</v>
-      </c>
-      <c r="H19" t="n">
-        <v>11075.315</v>
-      </c>
-      <c r="I19" t="n">
-        <v>6231.93</v>
-      </c>
-      <c r="J19" t="n">
-        <v>62520.424</v>
-      </c>
-      <c r="K19" t="n">
-        <v>22285.564</v>
-      </c>
-      <c r="L19" t="n">
-        <v>10931.617</v>
-      </c>
-      <c r="M19" t="n">
-        <v>24617.028</v>
-      </c>
-      <c r="N19" t="n">
-        <v>59624.396</v>
-      </c>
-      <c r="O19" t="n">
-        <v>240465.913</v>
-      </c>
-      <c r="P19" t="n">
-        <v>5619.303</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>32369.738</v>
-      </c>
-      <c r="R19" t="n">
-        <v>5404.591</v>
-      </c>
-      <c r="S19" t="n">
-        <v>5091.406</v>
-      </c>
-      <c r="T19" t="n">
-        <v>101592.319</v>
-      </c>
-      <c r="U19" t="n">
-        <v>32184.472</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>7242.4</v>
-      </c>
-      <c r="C20" t="n">
-        <v>9585.700000000001</v>
-      </c>
-      <c r="D20" t="n">
-        <v>4284.6</v>
-      </c>
-      <c r="E20" t="n">
-        <v>22581.9</v>
-      </c>
-      <c r="F20" t="n">
-        <v>14738.2</v>
-      </c>
-      <c r="G20" t="n">
-        <v>9258</v>
-      </c>
-      <c r="H20" t="n">
-        <v>9738.5</v>
-      </c>
-      <c r="I20" t="n">
-        <v>6516.7</v>
-      </c>
-      <c r="J20" t="n">
-        <v>70796.8</v>
-      </c>
-      <c r="K20" t="n">
-        <v>27560.6</v>
-      </c>
-      <c r="L20" t="n">
-        <v>11402</v>
-      </c>
-      <c r="M20" t="n">
-        <v>27747.1</v>
-      </c>
-      <c r="N20" t="n">
-        <v>67307.39999999999</v>
-      </c>
-      <c r="O20" t="n">
-        <v>271631</v>
-      </c>
-      <c r="P20" t="n">
-        <v>5997.9</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>36961.7</v>
-      </c>
-      <c r="R20" t="n">
-        <v>6515.6</v>
-      </c>
-      <c r="S20" t="n">
-        <v>4258.4</v>
-      </c>
-      <c r="T20" t="n">
-        <v>115218.2</v>
-      </c>
-      <c r="U20" t="n">
-        <v>33954</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>9810.4743</v>
-      </c>
-      <c r="C21" t="n">
-        <v>12539.473</v>
-      </c>
-      <c r="D21" t="n">
-        <v>4998.468</v>
-      </c>
-      <c r="E21" t="n">
-        <v>27656.1343</v>
-      </c>
-      <c r="F21" t="n">
-        <v>20001.371</v>
-      </c>
-      <c r="G21" t="n">
-        <v>10620.2488</v>
-      </c>
-      <c r="H21" t="n">
-        <v>11296.3315</v>
-      </c>
-      <c r="I21" t="n">
-        <v>7203.1864</v>
-      </c>
-      <c r="J21" t="n">
-        <v>79409.6094</v>
-      </c>
-      <c r="K21" t="n">
-        <v>30134.8454</v>
-      </c>
-      <c r="L21" t="n">
-        <v>12203.4818</v>
-      </c>
-      <c r="M21" t="n">
-        <v>34406.0339</v>
-      </c>
-      <c r="N21" t="n">
-        <v>65547.7951</v>
-      </c>
-      <c r="O21" t="n">
-        <v>324167.1451</v>
-      </c>
-      <c r="P21" t="n">
-        <v>7352.3275</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>43173.4876</v>
-      </c>
-      <c r="R21" t="n">
-        <v>6812.5929</v>
-      </c>
-      <c r="S21" t="n">
-        <v>4778.9312</v>
-      </c>
-      <c r="T21" t="n">
-        <v>149907.3882</v>
-      </c>
-      <c r="U21" t="n">
-        <v>40210.9086</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>12443.9714</v>
-      </c>
-      <c r="C22" t="n">
-        <v>16463.7864</v>
-      </c>
-      <c r="D22" t="n">
-        <v>5115.003</v>
-      </c>
-      <c r="E22" t="n">
-        <v>29242.321</v>
-      </c>
-      <c r="F22" t="n">
-        <v>23347.3572</v>
-      </c>
-      <c r="G22" t="n">
-        <v>11169.9719</v>
-      </c>
-      <c r="H22" t="n">
-        <v>11723.3102</v>
-      </c>
-      <c r="I22" t="n">
-        <v>7156.8307</v>
-      </c>
-      <c r="J22" t="n">
-        <v>88740.8544</v>
-      </c>
-      <c r="K22" t="n">
-        <v>31343.4151</v>
-      </c>
-      <c r="L22" t="n">
-        <v>12872.0164</v>
-      </c>
-      <c r="M22" t="n">
-        <v>38601.726</v>
-      </c>
-      <c r="N22" t="n">
-        <v>58546.0517</v>
-      </c>
-      <c r="O22" t="n">
-        <v>365694.5204</v>
-      </c>
-      <c r="P22" t="n">
-        <v>8559.874599999999</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>45416.6926</v>
-      </c>
-      <c r="R22" t="n">
-        <v>9801.8169</v>
-      </c>
-      <c r="S22" t="n">
-        <v>4928.0857</v>
-      </c>
-      <c r="T22" t="n">
-        <v>182510.9473</v>
-      </c>
-      <c r="U22" t="n">
-        <v>46018.3439</v>
+        <v>54846.018</v>
       </c>
     </row>
   </sheetData>
